--- a/工具类接口.xlsx
+++ b/工具类接口.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miss\Desktop\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\miss\PycharmProjects\untitled\onmyoji\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5832" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用接口" sheetId="5" r:id="rId1"/>
@@ -716,7 +716,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,7 +751,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.6640625" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1106,8 +1106,8 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
@@ -1118,7 +1118,7 @@
       <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -1136,8 +1136,8 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
@@ -1162,8 +1162,8 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -1188,8 +1188,8 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
